--- a/SET08803 Group One - Contribution Table.xlsx
+++ b/SET08803 Group One - Contribution Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calixte/Git/Software Engineering Methods/set08803_gw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{992FEB6B-073C-7A44-918E-DD9803028DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5F336D-9D52-904F-8C95-B17E71457AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="3220" windowWidth="28040" windowHeight="17440" xr2:uid="{976950A3-4B3D-6242-95B2-F8F0C2C485B0}"/>
+    <workbookView xWindow="5560" yWindow="3220" windowWidth="28040" windowHeight="17440" xr2:uid="{976950A3-4B3D-6242-95B2-F8F0C2C485B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,15 +153,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +479,7 @@
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E4" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,104 +490,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>40608341</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>40602930</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4"/>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>40658179</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4"/>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>40615063</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>40622448</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
